--- a/projects/test_building/input/Scenario_BuildingComponent_Cost_Labor.xlsx
+++ b/projects/test_building/input/Scenario_BuildingComponent_Cost_Labor.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B772D-E67A-814D-9C3A-9890CD9CC120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622EA4DB-E852-5A45-B7E6-017154158DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6320" yWindow="920" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,12 +524,13 @@
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">

--- a/projects/test_building/input/Scenario_BuildingComponent_Cost_Labor.xlsx
+++ b/projects/test_building/input/Scenario_BuildingComponent_Cost_Labor.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622EA4DB-E852-5A45-B7E6-017154158DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="920" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6315" yWindow="915" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -157,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,52 +206,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FA9CE83-D972-F14C-90D8-221126C915A4}" name="Table1" displayName="Table1" ref="A1:AQ2" totalsRowShown="0">
-  <autoFilter ref="A1:AQ2" xr:uid="{6FA9CE83-D972-F14C-90D8-221126C915A4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AQ2" totalsRowShown="0">
+  <autoFilter ref="A1:AQ2"/>
   <tableColumns count="43">
-    <tableColumn id="1" xr3:uid="{74741310-557F-C247-83B0-14FAD391CB2D}" name="id_region"/>
-    <tableColumn id="2" xr3:uid="{6141927E-FC59-164B-95A2-94D01CE22579}" name="unit"/>
-    <tableColumn id="3" xr3:uid="{FB46E0C3-FCD7-0C41-8F07-80983AC1E4D0}" name="2010"/>
-    <tableColumn id="4" xr3:uid="{37FBA6A8-F044-9945-9F20-E160091EB807}" name="2011"/>
-    <tableColumn id="5" xr3:uid="{FE7F8D9E-D554-CB48-B679-199D35F9F689}" name="2012"/>
-    <tableColumn id="6" xr3:uid="{7131C739-B49B-E942-B822-DAD84261AF2A}" name="2013"/>
-    <tableColumn id="7" xr3:uid="{5987C7EB-256E-9647-B726-E0853215545B}" name="2014"/>
-    <tableColumn id="8" xr3:uid="{1181C15D-0B75-4643-84D6-BF2969F1F11E}" name="2015"/>
-    <tableColumn id="9" xr3:uid="{BD376AD1-9FF6-6147-85C9-4CD891AF005C}" name="2016"/>
-    <tableColumn id="10" xr3:uid="{D53C6125-B350-FC45-BF3A-233655C285C3}" name="2017"/>
-    <tableColumn id="11" xr3:uid="{705340FB-349D-CD4B-A789-15F86EF40FDE}" name="2018"/>
-    <tableColumn id="12" xr3:uid="{C499FF04-39F7-5E4E-8DC8-745209C09643}" name="2019"/>
-    <tableColumn id="13" xr3:uid="{1F344C13-A71D-7D41-B4DD-27B1F9515102}" name="2020"/>
-    <tableColumn id="14" xr3:uid="{7E69522A-0196-0D47-AEBF-29DA981EE392}" name="2021"/>
-    <tableColumn id="15" xr3:uid="{81F30EF8-FD45-904D-860F-6415FBAF9A5D}" name="2022"/>
-    <tableColumn id="16" xr3:uid="{25FB512F-750B-B441-A9FA-33A6B226C686}" name="2023"/>
-    <tableColumn id="17" xr3:uid="{7B295372-7CF4-BD41-886B-5EC18E63EA05}" name="2024"/>
-    <tableColumn id="18" xr3:uid="{5003AC85-803E-0A4D-9A59-3163E7A95ADC}" name="2025"/>
-    <tableColumn id="19" xr3:uid="{A5F68542-2252-994E-A885-5FB55D6FE031}" name="2026"/>
-    <tableColumn id="20" xr3:uid="{A4D5462E-DFF3-0841-88CB-8EA3CF1FFB6B}" name="2027"/>
-    <tableColumn id="21" xr3:uid="{F1C7AC89-A6E5-C241-8005-3C826B05AFDD}" name="2028"/>
-    <tableColumn id="22" xr3:uid="{83A26CEC-2398-6844-B0E2-CDB84DAFB336}" name="2029"/>
-    <tableColumn id="23" xr3:uid="{4E9CF7ED-1520-F944-AB93-D65ACF13014E}" name="2030"/>
-    <tableColumn id="24" xr3:uid="{819011A5-E5E6-854F-8FC2-259E361ADF28}" name="2031"/>
-    <tableColumn id="25" xr3:uid="{F8C7793C-8FE2-374F-982C-DE210BC9C4E4}" name="2032"/>
-    <tableColumn id="26" xr3:uid="{76DDB819-A89E-564F-8921-EF4F179F150F}" name="2033"/>
-    <tableColumn id="27" xr3:uid="{8CE20BBE-1E35-9841-B347-803637E73F24}" name="2034"/>
-    <tableColumn id="28" xr3:uid="{D6658989-9FF5-F24C-A0C9-4338143FB86D}" name="2035"/>
-    <tableColumn id="29" xr3:uid="{1DBC9300-2C84-D34D-B19C-866078AD114B}" name="2036"/>
-    <tableColumn id="30" xr3:uid="{3BF8FAB9-2D8C-A248-A6A0-241411B3DE3E}" name="2037"/>
-    <tableColumn id="31" xr3:uid="{611B23D5-0D79-0441-B81C-529064049977}" name="2038"/>
-    <tableColumn id="32" xr3:uid="{72464AEE-51F3-8048-9324-09FAC34E7841}" name="2039"/>
-    <tableColumn id="33" xr3:uid="{E5E9ADA3-6548-9A4D-80B6-09940ADF9BC1}" name="2040"/>
-    <tableColumn id="34" xr3:uid="{5FDDCB1F-71D9-1140-9D16-FA3AD504730D}" name="2041"/>
-    <tableColumn id="35" xr3:uid="{1510F521-3BFA-6249-8ABD-C48E33BF7043}" name="2042"/>
-    <tableColumn id="36" xr3:uid="{DB8246A3-E3EA-6647-89AA-F57939C67919}" name="2043"/>
-    <tableColumn id="37" xr3:uid="{3AFF8FD3-873B-E44C-833B-FE7B947424A1}" name="2044"/>
-    <tableColumn id="38" xr3:uid="{FDABDAEE-6A0A-B544-AB50-93590DC7FE97}" name="2045"/>
-    <tableColumn id="39" xr3:uid="{B17CDDE6-ADF4-574D-B132-001183288DFB}" name="2046"/>
-    <tableColumn id="40" xr3:uid="{004AD8F3-D51C-764C-99E6-BBDF977C9FE3}" name="2047"/>
-    <tableColumn id="41" xr3:uid="{5AA8FA3D-C92C-4945-9A35-1EEFA48AE06E}" name="2048"/>
-    <tableColumn id="42" xr3:uid="{5AB457C8-708E-A24B-9892-3429BDC20A24}" name="2049"/>
-    <tableColumn id="43" xr3:uid="{4AF2C738-54F5-1A43-B76F-81AE1D906AA9}" name="2050"/>
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="2" name="unit"/>
+    <tableColumn id="3" name="2010"/>
+    <tableColumn id="4" name="2011"/>
+    <tableColumn id="5" name="2012"/>
+    <tableColumn id="6" name="2013"/>
+    <tableColumn id="7" name="2014"/>
+    <tableColumn id="8" name="2015"/>
+    <tableColumn id="9" name="2016"/>
+    <tableColumn id="10" name="2017"/>
+    <tableColumn id="11" name="2018"/>
+    <tableColumn id="12" name="2019"/>
+    <tableColumn id="13" name="2020"/>
+    <tableColumn id="14" name="2021"/>
+    <tableColumn id="15" name="2022"/>
+    <tableColumn id="16" name="2023"/>
+    <tableColumn id="17" name="2024"/>
+    <tableColumn id="18" name="2025"/>
+    <tableColumn id="19" name="2026"/>
+    <tableColumn id="20" name="2027"/>
+    <tableColumn id="21" name="2028"/>
+    <tableColumn id="22" name="2029"/>
+    <tableColumn id="23" name="2030"/>
+    <tableColumn id="24" name="2031"/>
+    <tableColumn id="25" name="2032"/>
+    <tableColumn id="26" name="2033"/>
+    <tableColumn id="27" name="2034"/>
+    <tableColumn id="28" name="2035"/>
+    <tableColumn id="29" name="2036"/>
+    <tableColumn id="30" name="2037"/>
+    <tableColumn id="31" name="2038"/>
+    <tableColumn id="32" name="2039"/>
+    <tableColumn id="33" name="2040"/>
+    <tableColumn id="34" name="2041"/>
+    <tableColumn id="35" name="2042"/>
+    <tableColumn id="36" name="2043"/>
+    <tableColumn id="37" name="2044"/>
+    <tableColumn id="38" name="2045"/>
+    <tableColumn id="39" name="2046"/>
+    <tableColumn id="40" name="2047"/>
+    <tableColumn id="41" name="2048"/>
+    <tableColumn id="42" name="2049"/>
+    <tableColumn id="43" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,20 +519,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
